--- a/data/05_input/zm.bs16a.xlsx
+++ b/data/05_input/zm.bs16a.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/61B7992D-FC92-406E-9476-D4F16DF7ABD5/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/06_local_list_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/02723F39-BFE1-4604-8D6F-BCBE0F291CE0/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973D4ED7-213B-EC45-ABCD-052E0954BB77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4952B4-C8E1-1D40-BFBD-E80FBCFB26AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="13740" windowWidth="13900" windowHeight="11260" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="17360" yWindow="3120" windowWidth="13900" windowHeight="17880" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
   <si>
     <t>SampleID</t>
   </si>
@@ -57,217 +57,220 @@
     <t>s01</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A10_S10_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A10_S10_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s02</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A11_S11_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A11_S11_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s03</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A12_S12_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A12_S12_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s04</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A13_S13_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A13_S13_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s05</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A14_S14_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A14_S14_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s06</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A15_S15_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A15_S15_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s07</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A16_S16_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A16_S16_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s08</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A18_S17_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A18_S17_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s09</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A19_S18_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A19_S18_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s10</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A1_S1_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A1_S1_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s11</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A20_S19_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A20_S19_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s12</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A21_S20_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A21_S20_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s13</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A22_S21_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A22_S21_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s14</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A23_S22_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A23_S22_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s15</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A25_S23_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A25_S23_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s16</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A27_S24_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A27_S24_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s17</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A2_S2_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A2_S2_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s18</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A3_S3_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A3_S3_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s19</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A4_S4_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A4_S4_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s20</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A5_S5_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A5_S5_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s21</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A6_S6_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A6_S6_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s22</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A7_S7_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A7_S7_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s23</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A8_S8_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A8_S8_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s24</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A9_S9_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/160128_SN1073_0539_BH2TYYADXY/Springer_Project_035/SeqCapEpi2_Cap1_A9_S9_R2_001.fastq</t>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A10_S10_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A10_S10_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A11_S11_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A11_S11_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A12_S12_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A12_S12_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A13_S13_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A13_S13_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A14_S14_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A14_S14_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A15_S15_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A15_S15_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A16_S16_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A16_S16_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A18_S17_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A18_S17_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A19_S18_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A19_S18_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A1_S1_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A1_S1_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A20_S19_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A20_S19_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A21_S20_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A21_S20_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A22_S21_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A22_S21_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A23_S22_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A23_S22_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A25_S23_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A25_S23_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A27_S24_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A27_S24_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A2_S2_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A2_S2_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A3_S3_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A3_S3_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A4_S4_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A4_S4_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A5_S5_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A5_S5_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A6_S6_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A6_S6_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A7_S7_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A7_S7_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A8_S8_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A8_S8_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A9_S9_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>160128_SN1073_0539_BH2TYYADXY/SeqCapEpi2_Cap1_A9_S9_R2_001.fastq</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="H2:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,405 +670,405 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="F4" t="s">
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" t="s">
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
+      <c r="F7" t="s">
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
+      <c r="F9" t="s">
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
+      <c r="F10" t="s">
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
+      <c r="F11" t="s">
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
+      <c r="F12" t="s">
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
+      <c r="F13" t="s">
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
+      <c r="F14" t="s">
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
-      <c r="F15" t="b">
-        <v>1</v>
+      <c r="F15" t="s">
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
+      <c r="F16" t="s">
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
+      <c r="F17" t="s">
+        <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
+      <c r="F18" t="s">
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
+      <c r="F19" t="s">
+        <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I19" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
+      <c r="F20" t="s">
+        <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I20" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
+      <c r="F21" t="s">
+        <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
-      <c r="F22" t="b">
-        <v>1</v>
+      <c r="F22" t="s">
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
+      <c r="F23" t="s">
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
-      <c r="F24" t="b">
-        <v>1</v>
+      <c r="F24" t="s">
+        <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
-      <c r="F25" t="b">
-        <v>1</v>
+      <c r="F25" t="s">
+        <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
